--- a/Keyword.xlsx
+++ b/Keyword.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Http" sheetId="1" r:id="rId1"/>
     <sheet name="Soap" sheetId="2" r:id="rId2"/>
     <sheet name="Assert" sheetId="3" r:id="rId3"/>
+    <sheet name="Web" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
   <si>
     <t>http.set</t>
   </si>
@@ -149,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assertJsonStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>assertResContain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,6 +171,234 @@
   </si>
   <si>
     <t>断言Json格式响应中key字段的值是否符合预期值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on / off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自动截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.autoScreenShot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭浏览器,退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.ie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开ie浏览器,必须设置环境变量driver指定驱动路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开chrome浏览器,必须设置环境变量driver指定驱动路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开浏览器后,访问网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[url]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[seconds]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait Until Element Is Visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.selectByIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据选项顺序选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.selectByText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据选项文本选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.selectByValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据选项value选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取元素的文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.getAttribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取元素属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.alertAccept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert点确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.alertDismiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert点取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.alertSendKeys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert输入文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.alertText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取alert文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.selectFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.selectTopFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择顶层框架(defaultContent)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.selectWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据title选择窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.excuteJavascript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行JS语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertJson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http.get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[url]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,11 +758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -569,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -577,79 +802,73 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -658,44 +877,55 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
@@ -717,6 +947,9 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -745,7 +978,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -775,27 +1008,27 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -803,4 +1036,294 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>